--- a/data/info.xlsx
+++ b/data/info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE93C037-B1C1-4C0E-BF33-EC54963E1B81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D96B2CA-838F-4A83-8720-29AE62FF98AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,10 +13,8 @@
     <sheet name="buildings" sheetId="6" r:id="rId3"/>
     <sheet name="event_cards" sheetId="7" r:id="rId4"/>
     <sheet name="player_cards" sheetId="8" r:id="rId5"/>
+    <sheet name="s_scavenge_vs_gather" sheetId="9" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="buildable" localSheetId="3">#REF!</definedName>
     <definedName name="buildable" localSheetId="4">#REF!</definedName>
@@ -84,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -405,6 +403,63 @@
   </si>
   <si>
     <t>Scavenge</t>
+  </si>
+  <si>
+    <t>turns</t>
+  </si>
+  <si>
+    <t>gather</t>
+  </si>
+  <si>
+    <t>gather_mult</t>
+  </si>
+  <si>
+    <t>scavenge</t>
+  </si>
+  <si>
+    <t>The study is done taking into account 3 survivors just designated to either gathering, gathering with multipliers or scavenging</t>
+  </si>
+  <si>
+    <t>Only the total of resources will be considered</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>gather_hybrid</t>
+  </si>
+  <si>
+    <t>survivors</t>
+  </si>
+  <si>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>It's clear that simple scavenging is better than simple gathering.</t>
+  </si>
+  <si>
+    <t>Nevertheless, scavenging is less reliable, you cannot choose which</t>
+  </si>
+  <si>
+    <t>resources to get and your scavengers might get hurt or killed.</t>
+  </si>
+  <si>
+    <t>The most productive way to get resources is to gather from</t>
+  </si>
+  <si>
+    <t>multiple tiles using a building, but that requires a building first.</t>
+  </si>
+  <si>
+    <t>The optimal strategy is then to start either scavenging or simple</t>
+  </si>
+  <si>
+    <t>gathering and start using buildings for gathering as soon as possible.</t>
+  </si>
+  <si>
+    <t>3 survivors arrive! You can choose not to take them in and they go to the next player to you, which also has the same choice. If they aren't accepted they die.</t>
+  </si>
+  <si>
+    <t>Survivors</t>
   </si>
 </sst>
 </file>
@@ -601,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,15 +721,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,17 +751,1345 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="#REF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Resource strategies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_scavenge_vs_gather!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>s_scavenge_vs_gather!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22B2-4A52-9A9B-260C0495702F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_scavenge_vs_gather!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gather_mult</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>s_scavenge_vs_gather!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22B2-4A52-9A9B-260C0495702F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_scavenge_vs_gather!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gather_hybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>s_scavenge_vs_gather!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22B2-4A52-9A9B-260C0495702F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_scavenge_vs_gather!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scavenge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>s_scavenge_vs_gather!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>292.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>337.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>382.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>427.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>472.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>517.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22B2-4A52-9A9B-260C0495702F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1332013151"/>
+        <c:axId val="1324315855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1332013151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1324315855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1324315855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332013151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78FC665-0E6A-450E-89AC-44752775F0F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,7 +2358,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,7 +2964,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,31 +3131,31 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -2344,6 +3730,149 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="33">
+        <f t="shared" ref="D2:D7" si="0">B2/SUM(B:B)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="33">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="33">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="33">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="33">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE295004-92D0-4869-98E3-E69FBF91F6CE}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2367,554 +3896,1217 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="33">
+        <f>B2/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B2),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find WATER! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="33">
+        <f>B3/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B3),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find FOOD! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="33">
+        <f>B4/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B4),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find MEDICINES! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="33">
+        <f>B5/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B5),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find ROCK! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="35">
-        <f>B2/SUM(B:B)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="33">
+        <f>B6/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B6),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find WOOD! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="33">
+        <f>B7/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B7),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find TOOLS! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="33">
+        <f>B8/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B8),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find WEAPONS! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="33">
+        <f>B9/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B9),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find INFORMATION! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="33">
+        <f>B10/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="33">
+        <f>B11/SUM(B:B)</f>
+        <v>2.7522935779816515E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="33">
+        <f>B12/SUM(B:B)</f>
+        <v>0.13761467889908258</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="33">
+        <f>B13/SUM(B:B)</f>
+        <v>0.11009174311926606</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="35">
-        <f>B3/SUM(B:B)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="35">
-        <f>B4/SUM(B:B)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="35">
-        <f>B5/SUM(B:B)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="35">
-        <f>B6/SUM(B:B)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="35">
-        <f>B7/SUM(B:B)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="34"/>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="33">
+        <f>B14/SUM(B:B)</f>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B3),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a WELL! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="33">
+        <f>B15/SUM(B:B)</f>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E15" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B4),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a WATER CLEANER! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="33">
+        <f>B16/SUM(B:B)</f>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B5),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a FARMACY! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="33">
+        <f>B17/SUM(B:B)</f>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E17" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B6),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a WORKSHOP! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="33">
+        <f>B18/SUM(B:B)</f>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E18" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B7),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a RADIO STATION! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="33">
+        <f>B19/SUM(B:B)</f>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E19" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B8),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a WATCH TOWER! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="33">
+        <f>B20/SUM(B:B)</f>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E20" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B9),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a FARM! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="33">
+        <f>B21/SUM(B:B)</f>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E21" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B10),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a HUNTER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="33">
+        <f>B22/SUM(B:B)</f>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B11),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a LUMBER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="33">
+        <f>B23/SUM(B:B)</f>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E23" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B12),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a QUARRY! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE295004-92D0-4869-98E3-E69FBF91F6CE}">
-  <dimension ref="A1:P24"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE578704-8EA0-4F61-A644-20F07D719928}">
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f>6*3</f>
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <f>(G2+H2)/2</f>
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <f>(15+3*10)/3*0.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="B3">
+        <f>B2+G$2*$K$2</f>
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <f>C2+H$2*$K$2</f>
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <f>D2+I$2*$K$2</f>
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <f>E2+J$2*$K$2</f>
+        <v>22.5</v>
+      </c>
+      <c r="F3">
+        <f>F2+$K$2*$J$2</f>
+        <v>22.5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>B3+G$2*$K$2</f>
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <f>C3+H$2*$K$2</f>
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <f>D3+I$2*$K$2</f>
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <f>E3+J$2*$K$2</f>
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F7" si="0">F3+$K$2*$J$2</f>
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>B4+G$2*$K$2</f>
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <f>C4+H$2*$K$2</f>
+        <v>162</v>
+      </c>
+      <c r="D5">
+        <f>D4+I$2*$K$2</f>
+        <v>108</v>
+      </c>
+      <c r="E5">
+        <f>E4+J$2*$K$2</f>
+        <v>67.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="35">
-        <f>B2/SUM(B:B)</f>
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="E2" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B2),"! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find WATER! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="35">
-        <f>B3/SUM(B:B)</f>
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="E3" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B3),"! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find FOOD! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="B6">
+        <f>B5+G$2*$K$2</f>
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <f>C5+H$2*$K$2</f>
+        <v>216</v>
+      </c>
+      <c r="D6">
+        <f>D5+I$2*$K$2</f>
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <f>E5+J$2*$K$2</f>
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>B6+G$2*$K$2</f>
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <f>C6+H$2*$K$2</f>
+        <v>270</v>
+      </c>
+      <c r="D7">
+        <f>D6+I$2*$K$2</f>
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <f>E6+J$2*$K$2</f>
+        <v>112.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>112.5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>B7+G$2*$K$2</f>
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <f>C7+H$2*$K$2</f>
+        <v>324</v>
+      </c>
+      <c r="D8">
+        <f>D7+I$2*$K$2</f>
+        <v>216</v>
+      </c>
+      <c r="E8">
+        <f>E7+J$2*$K$2</f>
+        <v>135</v>
+      </c>
+      <c r="F8">
+        <f>F7+15*0.5+2*6*G8*$K$2</f>
+        <v>228</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="35">
-        <f>B4/SUM(B:B)</f>
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="E4" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B4),"! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find MEDICINES! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="35">
-        <f>B5/SUM(B:B)</f>
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="E5" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B5),"! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find ROCK! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="35">
-        <f>B6/SUM(B:B)</f>
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="E6" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B6),"! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find WOOD! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="35">
-        <f>B7/SUM(B:B)</f>
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="E7" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B7),"! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find TOOLS! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="35">
-        <f>B8/SUM(B:B)</f>
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B8),"! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find WEAPONS! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+      <c r="R8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="35">
-        <f>B9/SUM(B:B)</f>
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B9),"! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find INFORMATION! You get 3+2S, where S is the number of scavengers, if you have at least one active scavenger</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+        <f>B8+G$2*$K$2</f>
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <f>C8+H$2*$K$2</f>
+        <v>378</v>
+      </c>
+      <c r="D9">
+        <f>D8+I$2*$K$2</f>
+        <v>252</v>
+      </c>
+      <c r="E9">
+        <f>E8+J$2*$K$2</f>
+        <v>157.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F26" si="1">F8+15*0.5+2*6*G9*$K$2</f>
+        <v>343.5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="35">
-        <f>B10/SUM(B:B)</f>
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+        <f>B9+G$2*$K$2</f>
+        <v>144</v>
+      </c>
+      <c r="C10">
+        <f>C9+H$2*$K$2</f>
+        <v>432</v>
+      </c>
+      <c r="D10">
+        <f>D9+I$2*$K$2</f>
+        <v>288</v>
+      </c>
+      <c r="E10">
+        <f>E9+J$2*$K$2</f>
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>459</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
       <c r="B11">
+        <f>B10+G$2*$K$2</f>
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <f>C10+H$2*$K$2</f>
+        <v>486</v>
+      </c>
+      <c r="D11">
+        <f>D10+I$2*$K$2</f>
+        <v>324</v>
+      </c>
+      <c r="E11">
+        <f>E10+J$2*$K$2</f>
+        <v>202.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>574.5</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="35">
-        <f>B11/SUM(B:B)</f>
-        <v>3.9473684210526314E-2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
+      <c r="R11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
       <c r="B12">
+        <f>B11+G$2*$K$2</f>
+        <v>180</v>
+      </c>
+      <c r="C12">
+        <f>C11+H$2*$K$2</f>
+        <v>540</v>
+      </c>
+      <c r="D12">
+        <f>D11+I$2*$K$2</f>
+        <v>360</v>
+      </c>
+      <c r="E12">
+        <f>E11+J$2*$K$2</f>
+        <v>225</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="35">
-        <f>B12/SUM(B:B)</f>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="E12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
-        <v>12</v>
-      </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="35">
-        <f>B13/SUM(B:B)</f>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B3),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a WELL! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+        <f>B12+G$2*$K$2</f>
+        <v>198</v>
+      </c>
+      <c r="C13">
+        <f>C12+H$2*$K$2</f>
+        <v>594</v>
+      </c>
+      <c r="D13">
+        <f>D12+I$2*$K$2</f>
+        <v>396</v>
+      </c>
+      <c r="E13">
+        <f>E12+J$2*$K$2</f>
+        <v>247.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>805.5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="35">
-        <f>B14/SUM(B:B)</f>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="E14" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B4),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a WATER CLEANER! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+        <f>B13+G$2*$K$2</f>
+        <v>216</v>
+      </c>
+      <c r="C14">
+        <f>C13+H$2*$K$2</f>
+        <v>648</v>
+      </c>
+      <c r="D14">
+        <f>D13+I$2*$K$2</f>
+        <v>432</v>
+      </c>
+      <c r="E14">
+        <f>E13+J$2*$K$2</f>
+        <v>270</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>921</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="35">
-        <f>B15/SUM(B:B)</f>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="E15" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B5),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a FARMACY! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+        <f>B14+G$2*$K$2</f>
+        <v>234</v>
+      </c>
+      <c r="C15">
+        <f>C14+H$2*$K$2</f>
+        <v>702</v>
+      </c>
+      <c r="D15">
+        <f>D14+I$2*$K$2</f>
+        <v>468</v>
+      </c>
+      <c r="E15">
+        <f>E14+J$2*$K$2</f>
+        <v>292.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1036.5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="35">
-        <f>B16/SUM(B:B)</f>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="E16" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B6),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a WORKSHOP! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+        <f>B15+G$2*$K$2</f>
+        <v>252</v>
+      </c>
+      <c r="C16">
+        <f>C15+H$2*$K$2</f>
+        <v>756</v>
+      </c>
+      <c r="D16">
+        <f>D15+I$2*$K$2</f>
+        <v>504</v>
+      </c>
+      <c r="E16">
+        <f>E15+J$2*$K$2</f>
+        <v>315</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1152</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="35">
-        <f>B17/SUM(B:B)</f>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="E17" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B7),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a RADIO STATION! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="36">
+        <f>B16+G$2*$K$2</f>
+        <v>270</v>
+      </c>
+      <c r="C17">
+        <f>C16+H$2*$K$2</f>
+        <v>810</v>
+      </c>
+      <c r="D17">
+        <f>D16+I$2*$K$2</f>
+        <v>540</v>
+      </c>
+      <c r="E17">
+        <f>E16+J$2*$K$2</f>
+        <v>337.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1267.5</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="35">
-        <f>B18/SUM(B:B)</f>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="E18" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B8),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a WATCH TOWER! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-      <c r="P18" s="35"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+        <f>B17+G$2*$K$2</f>
+        <v>288</v>
+      </c>
+      <c r="C18">
+        <f>C17+H$2*$K$2</f>
+        <v>864</v>
+      </c>
+      <c r="D18">
+        <f>D17+I$2*$K$2</f>
+        <v>576</v>
+      </c>
+      <c r="E18">
+        <f>E17+J$2*$K$2</f>
+        <v>360</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1383</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="35">
-        <f>B19/SUM(B:B)</f>
-        <v>1.3157894736842105E-2</v>
-      </c>
-      <c r="E19" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B9),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a FARM! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
+        <f>B18+G$2*$K$2</f>
+        <v>306</v>
+      </c>
+      <c r="C19">
+        <f>C18+H$2*$K$2</f>
+        <v>918</v>
+      </c>
+      <c r="D19">
+        <f>D18+I$2*$K$2</f>
+        <v>612</v>
+      </c>
+      <c r="E19">
+        <f>E18+J$2*$K$2</f>
+        <v>382.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1498.5</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="35">
-        <f>B20/SUM(B:B)</f>
-        <v>1.3157894736842105E-2</v>
-      </c>
-      <c r="E20" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B10),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a HUNTER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
+        <f>B19+G$2*$K$2</f>
+        <v>324</v>
+      </c>
+      <c r="C20">
+        <f>C19+H$2*$K$2</f>
+        <v>972</v>
+      </c>
+      <c r="D20">
+        <f>D19+I$2*$K$2</f>
+        <v>648</v>
+      </c>
+      <c r="E20">
+        <f>E19+J$2*$K$2</f>
+        <v>405</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1614</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="35">
-        <f>B21/SUM(B:B)</f>
-        <v>1.3157894736842105E-2</v>
-      </c>
-      <c r="E21" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B11),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a LUMBER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
+        <f>B20+G$2*$K$2</f>
+        <v>342</v>
+      </c>
+      <c r="C21">
+        <f>C20+H$2*$K$2</f>
+        <v>1026</v>
+      </c>
+      <c r="D21">
+        <f>D20+I$2*$K$2</f>
+        <v>684</v>
+      </c>
+      <c r="E21">
+        <f>E20+J$2*$K$2</f>
+        <v>427.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1729.5</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="35">
-        <f>B22/SUM(B:B)</f>
-        <v>1.3157894736842105E-2</v>
-      </c>
-      <c r="E22" t="str">
-        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B12),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a QUARRY! Place it in whichever building (not necessarily yours) or tile you want</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="D23" s="35"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="D24" s="35"/>
+        <f>B21+G$2*$K$2</f>
+        <v>360</v>
+      </c>
+      <c r="C22">
+        <f>C21+H$2*$K$2</f>
+        <v>1080</v>
+      </c>
+      <c r="D22">
+        <f>D21+I$2*$K$2</f>
+        <v>720</v>
+      </c>
+      <c r="E22">
+        <f>E21+J$2*$K$2</f>
+        <v>450</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1845</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>B22+G$2*$K$2</f>
+        <v>378</v>
+      </c>
+      <c r="C23">
+        <f>C22+H$2*$K$2</f>
+        <v>1134</v>
+      </c>
+      <c r="D23">
+        <f>D22+I$2*$K$2</f>
+        <v>756</v>
+      </c>
+      <c r="E23">
+        <f>E22+J$2*$K$2</f>
+        <v>472.5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1960.5</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f>B23+G$2*$K$2</f>
+        <v>396</v>
+      </c>
+      <c r="C24">
+        <f>C23+H$2*$K$2</f>
+        <v>1188</v>
+      </c>
+      <c r="D24">
+        <f>D23+I$2*$K$2</f>
+        <v>792</v>
+      </c>
+      <c r="E24">
+        <f>E23+J$2*$K$2</f>
+        <v>495</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2076</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f>B24+G$2*$K$2</f>
+        <v>414</v>
+      </c>
+      <c r="C25">
+        <f>C24+H$2*$K$2</f>
+        <v>1242</v>
+      </c>
+      <c r="D25">
+        <f>D24+I$2*$K$2</f>
+        <v>828</v>
+      </c>
+      <c r="E25">
+        <f>E24+J$2*$K$2</f>
+        <v>517.5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2191.5</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f>B25+G$2*$K$2</f>
+        <v>432</v>
+      </c>
+      <c r="C26">
+        <f>C25+H$2*$K$2</f>
+        <v>1296</v>
+      </c>
+      <c r="D26">
+        <f>D25+I$2*$K$2</f>
+        <v>864</v>
+      </c>
+      <c r="E26">
+        <f>E25+J$2*$K$2</f>
+        <v>540</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>2307</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/info.xlsx
+++ b/data/info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D96B2CA-838F-4A83-8720-29AE62FF98AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A55C927-D17D-4757-9564-1461178457E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map_tiles" sheetId="2" r:id="rId1"/>
@@ -2357,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EDFAF7-3A54-4002-A96B-C2CBDBF3D89B}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3872,7 +3872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE295004-92D0-4869-98E3-E69FBF91F6CE}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3906,7 +3906,7 @@
         <v>106</v>
       </c>
       <c r="D2" s="33">
-        <f>B2/SUM(B:B)</f>
+        <f t="shared" ref="D2:D23" si="0">B2/SUM(B:B)</f>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E2" t="str">
@@ -3925,7 +3925,7 @@
         <v>106</v>
       </c>
       <c r="D3" s="33">
-        <f>B3/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E3" t="str">
@@ -3944,7 +3944,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="33">
-        <f>B4/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E4" t="str">
@@ -3963,7 +3963,7 @@
         <v>106</v>
       </c>
       <c r="D5" s="33">
-        <f>B5/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E5" t="str">
@@ -3982,7 +3982,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="33">
-        <f>B6/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E6" t="str">
@@ -4001,7 +4001,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="33">
-        <f>B7/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E7" t="str">
@@ -4020,7 +4020,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="33">
-        <f>B8/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E8" t="str">
@@ -4039,7 +4039,7 @@
         <v>106</v>
       </c>
       <c r="D9" s="33">
-        <f>B9/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E9" t="str">
@@ -4058,7 +4058,7 @@
         <v>105</v>
       </c>
       <c r="D10" s="33">
-        <f>B10/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E10" t="s">
@@ -4076,7 +4076,7 @@
         <v>103</v>
       </c>
       <c r="D11" s="33">
-        <f>B11/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>2.7522935779816515E-2</v>
       </c>
       <c r="E11" t="s">
@@ -4094,7 +4094,7 @@
         <v>125</v>
       </c>
       <c r="D12" s="33">
-        <f>B12/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>0.13761467889908258</v>
       </c>
       <c r="E12" t="s">
@@ -4112,7 +4112,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="33">
-        <f>B13/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>0.11009174311926606</v>
       </c>
       <c r="E13" t="s">
@@ -4130,7 +4130,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="33">
-        <f>B14/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>1.834862385321101E-2</v>
       </c>
       <c r="E14" t="str">
@@ -4149,7 +4149,7 @@
         <v>99</v>
       </c>
       <c r="D15" s="33">
-        <f>B15/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>1.834862385321101E-2</v>
       </c>
       <c r="E15" t="str">
@@ -4168,7 +4168,7 @@
         <v>99</v>
       </c>
       <c r="D16" s="33">
-        <f>B16/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>1.834862385321101E-2</v>
       </c>
       <c r="E16" t="str">
@@ -4187,7 +4187,7 @@
         <v>99</v>
       </c>
       <c r="D17" s="33">
-        <f>B17/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>1.834862385321101E-2</v>
       </c>
       <c r="E17" t="str">
@@ -4206,7 +4206,7 @@
         <v>99</v>
       </c>
       <c r="D18" s="33">
-        <f>B18/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>1.834862385321101E-2</v>
       </c>
       <c r="E18" t="str">
@@ -4225,7 +4225,7 @@
         <v>99</v>
       </c>
       <c r="D19" s="33">
-        <f>B19/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>1.834862385321101E-2</v>
       </c>
       <c r="E19" t="str">
@@ -4245,7 +4245,7 @@
         <v>98</v>
       </c>
       <c r="D20" s="33">
-        <f>B20/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="E20" t="str">
@@ -4264,7 +4264,7 @@
         <v>98</v>
       </c>
       <c r="D21" s="33">
-        <f>B21/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="E21" t="str">
@@ -4283,7 +4283,7 @@
         <v>98</v>
       </c>
       <c r="D22" s="33">
-        <f>B22/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="E22" t="str">
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="D23" s="33">
-        <f>B23/SUM(B:B)</f>
+        <f t="shared" si="0"/>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="E23" t="str">
@@ -4408,19 +4408,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>B2+G$2*$K$2</f>
+        <f t="shared" ref="B3:B26" si="0">B2+G$2*$K$2</f>
         <v>18</v>
       </c>
       <c r="C3">
-        <f>C2+H$2*$K$2</f>
+        <f t="shared" ref="C3:C26" si="1">C2+H$2*$K$2</f>
         <v>54</v>
       </c>
       <c r="D3">
-        <f>D2+I$2*$K$2</f>
+        <f t="shared" ref="D3:D26" si="2">D2+I$2*$K$2</f>
         <v>36</v>
       </c>
       <c r="E3">
-        <f>E2+J$2*$K$2</f>
+        <f t="shared" ref="E3:E26" si="3">E2+J$2*$K$2</f>
         <v>22.5</v>
       </c>
       <c r="F3">
@@ -4439,23 +4439,23 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>B3+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C4">
-        <f>C3+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="D4">
-        <f>D3+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="E4">
-        <f>E3+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F7" si="0">F3+$K$2*$J$2</f>
+        <f t="shared" ref="F4:F7" si="4">F3+$K$2*$J$2</f>
         <v>45</v>
       </c>
       <c r="G4">
@@ -4467,23 +4467,23 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>B4+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C5">
-        <f>C4+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="D5">
-        <f>D4+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="E5">
-        <f>E4+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="G5">
@@ -4495,23 +4495,23 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>B5+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C6">
-        <f>C5+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="D6">
-        <f>D5+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="E6">
-        <f>E5+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="G6">
@@ -4523,23 +4523,23 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>B6+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="C7">
-        <f>C6+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="D7">
-        <f>D6+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="E7">
-        <f>E6+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>112.5</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>112.5</v>
       </c>
       <c r="G7">
@@ -4554,19 +4554,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>B7+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="C8">
-        <f>C7+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="D8">
-        <f>D7+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="E8">
-        <f>E7+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="F8">
@@ -4585,23 +4585,23 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>B8+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="C9">
-        <f>C8+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>378</v>
       </c>
       <c r="D9">
-        <f>D8+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="E9">
-        <f>E8+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>157.5</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F26" si="1">F8+15*0.5+2*6*G9*$K$2</f>
+        <f t="shared" ref="F9:F26" si="5">F8+15*0.5+2*6*G9*$K$2</f>
         <v>343.5</v>
       </c>
       <c r="G9">
@@ -4616,23 +4616,23 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>B9+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="C10">
-        <f>C9+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>432</v>
       </c>
       <c r="D10">
-        <f>D9+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="E10">
-        <f>E9+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>459</v>
       </c>
       <c r="G10">
@@ -4647,23 +4647,23 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>B10+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>162</v>
       </c>
       <c r="C11">
-        <f>C10+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>486</v>
       </c>
       <c r="D11">
-        <f>D10+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="E11">
-        <f>E10+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>202.5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>574.5</v>
       </c>
       <c r="G11">
@@ -4678,23 +4678,23 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>B11+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="C12">
-        <f>C11+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="D12">
-        <f>D11+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="E12">
-        <f>E11+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>690</v>
       </c>
       <c r="G12">
@@ -4709,23 +4709,23 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f>B12+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="C13">
-        <f>C12+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>594</v>
       </c>
       <c r="D13">
-        <f>D12+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>396</v>
       </c>
       <c r="E13">
-        <f>E12+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>247.5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>805.5</v>
       </c>
       <c r="G13">
@@ -4740,23 +4740,23 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>B13+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>216</v>
       </c>
       <c r="C14">
-        <f>C13+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>648</v>
       </c>
       <c r="D14">
-        <f>D13+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>432</v>
       </c>
       <c r="E14">
-        <f>E13+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>921</v>
       </c>
       <c r="G14">
@@ -4768,23 +4768,23 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>B14+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="C15">
-        <f>C14+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>702</v>
       </c>
       <c r="D15">
-        <f>D14+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>468</v>
       </c>
       <c r="E15">
-        <f>E14+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>292.5</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1036.5</v>
       </c>
       <c r="G15">
@@ -4796,23 +4796,23 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>B15+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="C16">
-        <f>C15+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>756</v>
       </c>
       <c r="D16">
-        <f>D15+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>504</v>
       </c>
       <c r="E16">
-        <f>E15+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>315</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1152</v>
       </c>
       <c r="G16">
@@ -4824,23 +4824,23 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f>B16+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="C17">
-        <f>C16+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
       <c r="D17">
-        <f>D16+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
       <c r="E17">
-        <f>E16+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>337.5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1267.5</v>
       </c>
       <c r="G17">
@@ -4852,23 +4852,23 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>B17+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="C18">
-        <f>C17+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>864</v>
       </c>
       <c r="D18">
-        <f>D17+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>576</v>
       </c>
       <c r="E18">
-        <f>E17+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1383</v>
       </c>
       <c r="G18">
@@ -4880,23 +4880,23 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>B18+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>306</v>
       </c>
       <c r="C19">
-        <f>C18+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>918</v>
       </c>
       <c r="D19">
-        <f>D18+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>612</v>
       </c>
       <c r="E19">
-        <f>E18+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>382.5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1498.5</v>
       </c>
       <c r="G19">
@@ -4908,23 +4908,23 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f>B19+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
       <c r="C20">
-        <f>C19+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>972</v>
       </c>
       <c r="D20">
-        <f>D19+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>648</v>
       </c>
       <c r="E20">
-        <f>E19+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1614</v>
       </c>
       <c r="G20">
@@ -4936,23 +4936,23 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f>B20+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>342</v>
       </c>
       <c r="C21">
-        <f>C20+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>1026</v>
       </c>
       <c r="D21">
-        <f>D20+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>684</v>
       </c>
       <c r="E21">
-        <f>E20+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>427.5</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1729.5</v>
       </c>
       <c r="G21">
@@ -4964,23 +4964,23 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>B21+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="C22">
-        <f>C21+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="D22">
-        <f>D21+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="E22">
-        <f>E21+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1845</v>
       </c>
       <c r="G22">
@@ -4992,23 +4992,23 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>B22+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>378</v>
       </c>
       <c r="C23">
-        <f>C22+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>1134</v>
       </c>
       <c r="D23">
-        <f>D22+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>756</v>
       </c>
       <c r="E23">
-        <f>E22+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>472.5</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1960.5</v>
       </c>
       <c r="G23">
@@ -5020,23 +5020,23 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>B23+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>396</v>
       </c>
       <c r="C24">
-        <f>C23+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>1188</v>
       </c>
       <c r="D24">
-        <f>D23+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>792</v>
       </c>
       <c r="E24">
-        <f>E23+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>495</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2076</v>
       </c>
       <c r="G24">
@@ -5048,23 +5048,23 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>B24+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>414</v>
       </c>
       <c r="C25">
-        <f>C24+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>1242</v>
       </c>
       <c r="D25">
-        <f>D24+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>828</v>
       </c>
       <c r="E25">
-        <f>E24+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>517.5</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2191.5</v>
       </c>
       <c r="G25">
@@ -5076,23 +5076,23 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>B25+G$2*$K$2</f>
+        <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="C26">
-        <f>C25+H$2*$K$2</f>
+        <f t="shared" si="1"/>
         <v>1296</v>
       </c>
       <c r="D26">
-        <f>D25+I$2*$K$2</f>
+        <f t="shared" si="2"/>
         <v>864</v>
       </c>
       <c r="E26">
-        <f>E25+J$2*$K$2</f>
+        <f t="shared" si="3"/>
         <v>540</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2307</v>
       </c>
       <c r="G26">

--- a/data/info.xlsx
+++ b/data/info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A55C927-D17D-4757-9564-1461178457E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7AC77B-83FB-480B-A5E1-80A00C25FF9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map_tiles" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Created at "radio station" and "watch tower"</t>
   </si>
   <si>
-    <t>each wounded survivor consumes 3 to be healed for the next turn. If not enough, the wounded don't heal and one of them dies.</t>
-  </si>
-  <si>
     <t>placeable in other buildings</t>
   </si>
   <si>
@@ -327,24 +324,12 @@
     <t>Gathering</t>
   </si>
   <si>
-    <t>Gathering. Multiplied by "farm" + grass + tools or "hunter camp" + woods + weapons</t>
-  </si>
-  <si>
-    <t>Gathering. Multiplied by "quarry" + tools</t>
-  </si>
-  <si>
-    <t>Gathering. Multiplied by "lumber camp" + tools</t>
-  </si>
-  <si>
     <t>Nothing happens</t>
   </si>
   <si>
     <t>Sunny day</t>
   </si>
   <si>
-    <t>Every player gets 3 water</t>
-  </si>
-  <si>
     <t>Rainy day</t>
   </si>
   <si>
@@ -366,9 +351,6 @@
     <t>Sickness</t>
   </si>
   <si>
-    <t>All players loose 1 from each resource</t>
-  </si>
-  <si>
     <t>Rats</t>
   </si>
   <si>
@@ -456,10 +438,31 @@
     <t>gathering and start using buildings for gathering as soon as possible.</t>
   </si>
   <si>
-    <t>3 survivors arrive! You can choose not to take them in and they go to the next player to you, which also has the same choice. If they aren't accepted they die.</t>
-  </si>
-  <si>
     <t>Survivors</t>
+  </si>
+  <si>
+    <t>3 survivors arrive! You can choose not to take them in and they go to the next player to you, which also has the same choice. If they aren't accepted by anyone they die.</t>
+  </si>
+  <si>
+    <t>each wounded survivor consumes 1 to be healed for the next turn. If not enough, the wounded don't heal and one of them dies.</t>
+  </si>
+  <si>
+    <t>Every player gets 10 water</t>
+  </si>
+  <si>
+    <t>All players loose 5 food and water and 1 from each other resource</t>
+  </si>
+  <si>
+    <t>Gathering. You can set up to 3 survivors to each gather rock from all tiles containing and around a "quarry"</t>
+  </si>
+  <si>
+    <t>Gathering. You can set up to 3 survivors to each gather food from all GRASS tiles containing and around a "farm" or from all WOOD tiles containing and around a "hunter camp"</t>
+  </si>
+  <si>
+    <t>Gathering. You can set up to 3 survivors to each gather wood from all WOOD tiles containing and around a "lumber camp"</t>
+  </si>
+  <si>
+    <t>plenty</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -724,6 +727,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2357,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EDFAF7-3A54-4002-A96B-C2CBDBF3D89B}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2413,10 +2428,10 @@
         <v>25</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U1" s="31"/>
     </row>
@@ -2449,19 +2464,19 @@
       <c r="N2" s="14"/>
       <c r="O2" s="16"/>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2493,19 +2508,19 @@
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="U3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2537,19 +2552,19 @@
       <c r="N4" s="12"/>
       <c r="O4" s="13"/>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2585,19 +2600,19 @@
       <c r="N5" s="12"/>
       <c r="O5" s="13"/>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="U5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2633,19 +2648,19 @@
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -2684,24 +2699,22 @@
       <c r="M7" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="12">
-        <v>1</v>
-      </c>
+      <c r="N7" s="12"/>
       <c r="O7" s="13"/>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="U7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -2729,13 +2742,13 @@
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2769,13 +2782,13 @@
       <c r="N9" s="12"/>
       <c r="O9" s="13"/>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -2807,19 +2820,19 @@
       <c r="N10" s="12"/>
       <c r="O10" s="13"/>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="U10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2892,7 +2905,7 @@
       </c>
       <c r="N12" s="12">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="0"/>
@@ -2947,7 +2960,7 @@
       </c>
       <c r="N13" s="19">
         <f t="shared" ref="N13" si="7">N12/$C$11</f>
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" ref="O13" si="8">O12/$C$11</f>
@@ -2961,163 +2974,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9966BAD7-0536-47B0-817F-25C9FA120D1E}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="32.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="32.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="36">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+        <v>79</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="37">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>49</v>
+      <c r="C4" s="36">
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="E7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3130,32 +3171,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5531790B-02F5-4EEF-93DC-68D09484BB8E}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="D1" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="K1" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -3165,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>15</v>
@@ -3213,7 +3254,7 @@
         <v>25</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -3255,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3316,7 +3357,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -3350,9 +3391,7 @@
       <c r="H6" s="25">
         <v>3</v>
       </c>
-      <c r="I6" s="12">
-        <v>3</v>
-      </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="25">
         <v>4</v>
       </c>
@@ -3366,17 +3405,17 @@
         <v>-1</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R6" s="13"/>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3437,9 +3476,11 @@
         <v>2</v>
       </c>
       <c r="H8" s="25">
-        <v>15</v>
-      </c>
-      <c r="I8" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="I8" s="25">
+        <v>5</v>
+      </c>
       <c r="J8" s="12"/>
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
@@ -3504,7 +3545,9 @@
       <c r="H10" s="25">
         <v>5</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="25">
+        <v>3</v>
+      </c>
       <c r="J10" s="25">
         <v>2</v>
       </c>
@@ -3730,7 +3773,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3746,10 +3789,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3760,14 +3803,14 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D2" s="33">
         <f t="shared" ref="D2:D7" si="0">B2/SUM(B:B)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3778,14 +3821,14 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3796,14 +3839,14 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3814,14 +3857,14 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3832,14 +3875,14 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3850,14 +3893,14 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3873,7 +3916,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3889,10 +3932,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3903,14 +3946,14 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D2" s="33">
         <f t="shared" ref="D2:D23" si="0">B2/SUM(B:B)</f>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B2),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B2),"! You get ",15/3*resources!C2,"+",FLOOR(10/3*resources!C2,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
         <v>You find WATER! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
@@ -3922,14 +3965,14 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D3" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E3" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B3),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B3),"! You get ",15/3*resources!C3,"+",FLOOR(10/3*resources!C3,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
         <v>You find FOOD! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
@@ -3941,15 +3984,15 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E4" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B4),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find MEDICINES! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B4),"! You get ",15/3*resources!C4,"+",FLOOR(10/3*resources!C4,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find MEDICINES! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3960,15 +4003,15 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E5" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B5),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find ROCK! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B5),"! You get ",15/3*resources!C5,"+",FLOOR(10/3*resources!C5,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find ROCK! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3979,15 +4022,15 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E6" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B6),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find WOOD! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B6),"! You get ",15/3*resources!C6,"+",FLOOR(10/3*resources!C6,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find WOOD! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3998,15 +4041,15 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E7" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B7),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find TOOLS! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B7),"! You get ",15/3*resources!C7,"+",FLOOR(10/3*resources!C7,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find TOOLS! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4017,15 +4060,15 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E8" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B8),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find WEAPONS! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B8),"! You get ",15/3*resources!C8,"+",FLOOR(10/3*resources!C8,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find WEAPONS! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4036,15 +4079,15 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E9" t="str">
-        <f>_xlfn.CONCAT("You find ",UPPER(resources!B9),"! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger")</f>
-        <v>You find INFORMATION! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B9),"! You get ",15/3*resources!C9,"+",FLOOR(10/3*resources!C9,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find INFORMATION! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4055,14 +4098,14 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4073,14 +4116,14 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>2.7522935779816515E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4091,14 +4134,14 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
         <v>0.13761467889908258</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -4109,14 +4152,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
         <v>0.11009174311926606</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -4127,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
@@ -4146,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D15" s="33">
         <f t="shared" si="0"/>
@@ -4165,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D16" s="33">
         <f t="shared" si="0"/>
@@ -4184,7 +4227,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D17" s="33">
         <f t="shared" si="0"/>
@@ -4203,7 +4246,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D18" s="33">
         <f t="shared" si="0"/>
@@ -4222,7 +4265,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D19" s="33">
         <f t="shared" si="0"/>
@@ -4242,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D20" s="33">
         <f t="shared" si="0"/>
@@ -4261,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D21" s="33">
         <f t="shared" si="0"/>
@@ -4280,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D22" s="33">
         <f t="shared" si="0"/>
@@ -4299,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D23" s="33">
         <f t="shared" si="0"/>
@@ -4328,38 +4371,38 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -4400,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -4431,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -4546,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -4577,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -4608,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -4639,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -4670,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="R11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -4701,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="R12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -4732,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">

--- a/data/info.xlsx
+++ b/data/info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7AC77B-83FB-480B-A5E1-80A00C25FF9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D749A4A1-7F7C-4404-A162-E1047A611A1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map_tiles" sheetId="2" r:id="rId1"/>
@@ -441,9 +441,6 @@
     <t>Survivors</t>
   </si>
   <si>
-    <t>3 survivors arrive! You can choose not to take them in and they go to the next player to you, which also has the same choice. If they aren't accepted by anyone they die.</t>
-  </si>
-  <si>
     <t>each wounded survivor consumes 1 to be healed for the next turn. If not enough, the wounded don't heal and one of them dies.</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>plenty</t>
+  </si>
+  <si>
+    <t>3+R survivors arrive! (R=number of radio stations you possess). You can choose not to take them in and they go to the next player to you, which also has the same choice. If they aren't accepted by anyone they die.</t>
   </si>
 </sst>
 </file>
@@ -2376,12 +2376,12 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="15" width="5.77734375" customWidth="1"/>
+    <col min="4" max="15" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="U1" s="31"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>3</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>4</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>5</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>6</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>7</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>8</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>9</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>10</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>31</v>
       </c>
@@ -2980,15 +2980,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="32.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="32.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>33</v>
@@ -3008,7 +3008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3042,11 +3042,11 @@
         <v>24</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>79</v>
@@ -3066,7 +3066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3080,11 +3080,11 @@
         <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3098,11 +3098,11 @@
         <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3171,13 +3171,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5531790B-02F5-4EEF-93DC-68D09484BB8E}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1" s="39" t="s">
         <v>50</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="Q1" s="40"/>
       <c r="R1" s="40"/>
     </row>
-    <row r="2" spans="1:21" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3639,7 +3639,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -3656,7 +3656,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -3673,7 +3673,7 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -3690,7 +3690,7 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -3707,7 +3707,7 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -3724,7 +3724,7 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -3741,7 +3741,7 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -3776,9 +3776,9 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -3810,10 +3810,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -3882,10 +3882,10 @@
         <v>0.2</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="32"/>
     </row>
   </sheetData>
@@ -3915,13 +3915,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE295004-92D0-4869-98E3-E69FBF91F6CE}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>You find WATER! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>You find FOOD! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>You find MEDICINES! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>You find ROCK! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>You find WOOD! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>You find TOOLS! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>You find WEAPONS! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>8</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>You find INFORMATION! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>9</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>10</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -4141,10 +4141,10 @@
         <v>0.13761467889908258</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>You found a WELL! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>You found a WATER CLEANER! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>15</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>You found a FARMACY! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>16</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>You found a WORKSHOP! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>17</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>You found a RADIO STATION! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>18</v>
       </c>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>19</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>You found a FARM! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>20</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>You found a HUNTER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>21</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>You found a LUMBER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>22</v>
       </c>
@@ -4353,11 +4353,11 @@
         <v>You found a QUARRY! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="D25" s="33"/>
     </row>
@@ -4374,9 +4374,9 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>8</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>9</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>10</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>15</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>16</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>17</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>18</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>19</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>20</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>21</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>22</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>23</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>24</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>25</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
     </row>
   </sheetData>
